--- a/Data Files/Input Validation/05. detail1/06. Typecode 111/Auto_Detail1_TC111_C6.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 111/Auto_Detail1_TC111_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A08637-C8B2-4E24-89D6-231CC81A3F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528DED6C-D9F2-4670-8E1A-7FC38FFCE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t>77aac8-kj5is9S9j6</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
